--- a/biology/Virologie/Kamen_Rider_Heisei_Generations__Dr._Pac-Man_vs._Ex-Aid_and_Ghost_with_Legend_Rider/Kamen_Rider_Heisei_Generations__Dr._Pac-Man_vs._Ex-Aid_and_Ghost_with_Legend_Rider.xlsx
+++ b/biology/Virologie/Kamen_Rider_Heisei_Generations__Dr._Pac-Man_vs._Ex-Aid_and_Ghost_with_Legend_Rider/Kamen_Rider_Heisei_Generations__Dr._Pac-Man_vs._Ex-Aid_and_Ghost_with_Legend_Rider.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kamen Rider Heisei Generations: Dr. Pac-Man vs. Ex-Aid and Ghost with Legend Riders (仮面ライダー平成ジェネレーションズ　Dr.パックマン対エグゼイド&amp;ゴースト　with レジェンドライダー, Kamen Raidā Heisei Jenerēshonzu: Dokutā Pakkuman tai Eguzeido ando Gōsuto wizu Rejendo Raidā?) est un film japonais de type tokusatsu réalisé par Koichi Sakamoto en 2016, sorti le 10 décembre 2016 dans les salles de cinéma japonaises[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kamen Rider Heisei Generations: Dr. Pac-Man vs. Ex-Aid and Ghost with Legend Riders (仮面ライダー平成ジェネレーションズ　Dr.パックマン対エグゼイド&amp;ゴースト　with レジェンドライダー, Kamen Raidā Heisei Jenerēshonzu: Dokutā Pakkuman tai Eguzeido ando Gōsuto wizu Rejendo Raidā?) est un film japonais de type tokusatsu réalisé par Koichi Sakamoto en 2016, sorti le 10 décembre 2016 dans les salles de cinéma japonaises.
 Faisant partie de la franchise Kamen Rider, il constitue le 1er épisode de la série des Heisei Generations. Il s'agit d'un crossover entre les séries TV Kamen Rider Ghost et Kamen Rider Ex-Aid. Le film met en scène les deux héros principaux des deux séries et leurs alliés, avec l'aide des Kamen Rider Drive, Kamen Rider Wizard et Kamen Rider Gaim.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un virus informatique non identifié appelé "Pac-Man" envahit le Japon du cyberespace. Il appartient aux Kamen Riders de mettre fin à la destruction qu'il cause en trouvant la source.
 Alors que l'infection se propage à un rythme effrayant, Takeru Tenkuji est infecté par le virus et perd sa capacité à se transformer. Emu Hojo découvre la véritable identité de l'ennemi et la source de l'infection, mais cela mène à une "vérité cruciale" qui affectera son propre destin.
-Kamen Rider Ghost et Ex-Aid devront s'allier aux Kamen Riders Wizard, Gaim et Drive pour affronter les gobeurs de fantômes[2].
+Kamen Rider Ghost et Ex-Aid devront s'allier aux Kamen Riders Wizard, Gaim et Drive pour affronter les gobeurs de fantômes.
 Comment les Kamen Riders, connus sous le nom de Légendes, vont-ils surmonter cette crise ? Comment Wizard, qui est parti à la recherche d'un lieu de repos, Gaim, qui a quitté la planète, et Drive, qui a perdu sa ceinture, seront-ils de retour ?
 </t>
         </is>
@@ -548,9 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Michihiko Zaizen
-Michihiko Zaizen (財前 美智彦, Zaizen Michihiko?) est l'antagoniste principal du film.
-Zaizen était autrefois directeur du Next Genome Research Institute. Il porte un masque et agit comme "Dr. Pac-Man" pour reprendre un projet enfoui dans l'obscurité. Il est celui qui crée le "virus Pac-Man", une forme de vie de virus de jeu, pour se venger de l'humanité[3].
+          <t>Michihiko Zaizen</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michihiko Zaizen (財前 美智彦, Zaizen Michihiko?) est l'antagoniste principal du film.
+Zaizen était autrefois directeur du Next Genome Research Institute. Il porte un masque et agit comme "Dr. Pac-Man" pour reprendre un projet enfoui dans l'obscurité. Il est celui qui crée le "virus Pac-Man", une forme de vie de virus de jeu, pour se venger de l'humanité.
 Il est interprété par Shirō Sano (佐野 史郎, Sano Shirō?).
 </t>
         </is>
@@ -580,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Emu Hōjō (宝生 永夢, Hōjō Emu?): Hiroki Iijima (en)
 Takeru Tenkūji (天空寺 タケル, Tenkūji Takeru?): Shun Nishime (en)
